--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaVatLieuXayDung.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaVatLieuXayDung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E1BFC1-9BE7-4980-9E3F-A16E48E832C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4045CC-9FA2-405F-9DAE-89740722D0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,15 +85,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -101,18 +100,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -158,6 +151,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF3F4254"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -198,70 +198,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -581,116 +584,121 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" style="18" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" style="15" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="19" style="16" customWidth="1"/>
+    <col min="2" max="2" width="57.125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="44.875" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
-    <row r="2" spans="1:6" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" s="14" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="1:6" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="6" spans="1:6" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="24">
         <v>1440000</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="E3:E1048576" xr:uid="{FB26CD04-B258-4D6F-9CC0-562B744A9641}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>